--- a/HW6.xlsx
+++ b/HW6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpl-st-spring2021/Desktop/CSCHW6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFA431B6-1FCC-CF45-A3A2-CAEDC40E0703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262E03AB-F978-0240-AF2D-940297288D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19040" xr2:uid="{12ED6E5B-AD6C-6349-B7BA-9D161EA3D703}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23700" windowHeight="28800" xr2:uid="{12ED6E5B-AD6C-6349-B7BA-9D161EA3D703}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,57 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
+  <si>
+    <t>Scatter</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Runtime</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Gathering</t>
+  </si>
+  <si>
+    <t>Row-slab</t>
+  </si>
+  <si>
+    <t>Column-slab</t>
+  </si>
+  <si>
+    <t>Tiled</t>
+  </si>
+  <si>
+    <t>#Message</t>
+  </si>
+  <si>
+    <t>Data moved (Mb)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,8 +111,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,6 +135,3920 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Column-slab</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scatter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61272105810670219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66953556349464105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54980664088545139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60883047844063787</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54652704135737007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67890663592952416</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72780229479258607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EDD-1F4F-A7B1-C6EF61864F9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Process</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$16:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2253164556962028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8654353562005284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4732254047322551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5775862068965525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.772058823529413</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.606811145510838</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.908227848101266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3EDD-1F4F-A7B1-C6EF61864F9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gathering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$16:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83465427712489737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59163115071677641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54868846568451313</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55608157319737794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44441210710128054</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45568487018800358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50139550155967827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3EDD-1F4F-A7B1-C6EF61864F9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="276548528"/>
+        <c:axId val="276550176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="276548528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rank</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="276550176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="276550176"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sppedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="276548528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiled</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scatter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91284240483813595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76619886533293513</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84421779898009541</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85206707620786992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62876745895613817</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59131236317548097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76085989621942174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-47C6-AA4D-8EC0-C56D87C651A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Process</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$28:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1783756851021425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8553791887125222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9321573948439621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1719626168224302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.068354430379745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.194805194805195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.772357723577237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-47C6-AA4D-8EC0-C56D87C651A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gathering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$28:$K$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0785373608903022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80227057710501426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74697203259194023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69765528589058012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66431649040344698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46269267494202704</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52695354979027498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-47C6-AA4D-8EC0-C56D87C651A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="276548528"/>
+        <c:axId val="276550176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="276548528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rank</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="276550176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="276550176"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sppedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="276548528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Row-slab</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scatter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99906396255850249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95099495099495102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8045226130653268</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84933687002652525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90044994375703036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77737314882252984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0550247116968698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6123-C746-9A2B-427AF8687FCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Process</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2409090909090907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8852889667250436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0249150622876551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8366718027734974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.176322418136019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.232911392405063</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.376923076923077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6123-C746-9A2B-427AF8687FCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gathering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50420583869371594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3764314739564093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29988228369629194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37698853126156118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32003768844221103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22750613976334003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20770485120260904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6123-C746-9A2B-427AF8687FCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="276548528"/>
+        <c:axId val="276550176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="276548528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rank</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="276550176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="276550176"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sppedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="276548528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FA5A7A-4181-F940-93C9-037EDBC17B36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EE23D93-A705-EF44-AB95-AB4C76467D76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03A5C0A-54AC-B84C-9C78-AB575E0924F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +4348,1419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070C80F6-13DC-BA48-BDEE-B9EE1AA84383}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>32.020000000000003</v>
+      </c>
+      <c r="C4">
+        <f>B$4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>44.37</v>
+      </c>
+      <c r="G4">
+        <f>F$4/F4</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>10.19</v>
+      </c>
+      <c r="K4" s="2">
+        <f>J$4/J4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C11" si="0">B$4/B5</f>
+        <v>0.99906396255850249</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>19.8</v>
+      </c>
+      <c r="G5">
+        <f>F$4/F5</f>
+        <v>2.2409090909090907</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2">
+        <v>20.21</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" ref="K5:K11" si="1">J$4/J5</f>
+        <v>0.50420583869371594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>33.67</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.95099495099495102</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>11.42</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G11" si="2">F$4/F6</f>
+        <v>3.8852889667250436</v>
+      </c>
+      <c r="I6" s="2">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2">
+        <v>27.07</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3764314739564093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.8045226130653268</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>8.83</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>5.0249150622876551</v>
+      </c>
+      <c r="I7" s="2">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.29988228369629194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.84933687002652525</v>
+      </c>
+      <c r="E8">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>6.49</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>6.8366718027734974</v>
+      </c>
+      <c r="I8" s="2">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2">
+        <v>27.03</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.37698853126156118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>35.56</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.90044994375703036</v>
+      </c>
+      <c r="E9">
+        <v>49</v>
+      </c>
+      <c r="F9">
+        <v>3.97</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>11.176322418136019</v>
+      </c>
+      <c r="I9" s="2">
+        <v>49</v>
+      </c>
+      <c r="J9" s="2">
+        <v>31.84</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.32003768844221103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>41.19</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.77737314882252984</v>
+      </c>
+      <c r="E10">
+        <v>64</v>
+      </c>
+      <c r="F10">
+        <v>3.95</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>11.232911392405063</v>
+      </c>
+      <c r="I10" s="2">
+        <v>64</v>
+      </c>
+      <c r="J10" s="2">
+        <v>44.79</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22750613976334003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>81</v>
+      </c>
+      <c r="B11">
+        <v>30.35</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.0550247116968698</v>
+      </c>
+      <c r="E11">
+        <v>81</v>
+      </c>
+      <c r="F11">
+        <v>3.9</v>
+      </c>
+      <c r="G11">
+        <f>F$4/F11</f>
+        <v>11.376923076923077</v>
+      </c>
+      <c r="I11" s="2">
+        <v>81</v>
+      </c>
+      <c r="J11" s="2">
+        <v>49.06</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20770485120260904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>41.23</v>
+      </c>
+      <c r="C16">
+        <f>B$16/B16</f>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>43.95</v>
+      </c>
+      <c r="G16">
+        <f>F$16/F16</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2">
+        <v>30.54</v>
+      </c>
+      <c r="K16">
+        <f>J$16/J16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C23" si="3">B$16/B17</f>
+        <v>0.61272105810670219</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>19.75</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:G23" si="4">F$16/F17</f>
+        <v>2.2253164556962028</v>
+      </c>
+      <c r="I17" s="2">
+        <v>9</v>
+      </c>
+      <c r="J17" s="2">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:K23" si="5">J$16/J17</f>
+        <v>0.83465427712489737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>61.58</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>0.66953556349464105</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>11.37</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>3.8654353562005284</v>
+      </c>
+      <c r="I18" s="2">
+        <v>16</v>
+      </c>
+      <c r="J18" s="2">
+        <v>51.62</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>0.59163115071677641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>74.989999999999995</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>0.54980664088545139</v>
+      </c>
+      <c r="E19">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>5.4732254047322551</v>
+      </c>
+      <c r="I19" s="2">
+        <v>25</v>
+      </c>
+      <c r="J19" s="2">
+        <v>55.66</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>0.54868846568451313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>67.72</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>0.60883047844063787</v>
+      </c>
+      <c r="E20">
+        <v>36</v>
+      </c>
+      <c r="F20">
+        <v>5.8</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>7.5775862068965525</v>
+      </c>
+      <c r="I20" s="2">
+        <v>36</v>
+      </c>
+      <c r="J20" s="2">
+        <v>54.92</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>0.55608157319737794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>75.44</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>0.54652704135737007</v>
+      </c>
+      <c r="E21">
+        <v>49</v>
+      </c>
+      <c r="F21">
+        <v>4.08</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>10.772058823529413</v>
+      </c>
+      <c r="I21" s="2">
+        <v>49</v>
+      </c>
+      <c r="J21" s="2">
+        <v>68.72</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>0.44441210710128054</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>64</v>
+      </c>
+      <c r="B22">
+        <v>60.73</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>0.67890663592952416</v>
+      </c>
+      <c r="E22">
+        <v>64</v>
+      </c>
+      <c r="F22">
+        <v>3.23</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>13.606811145510838</v>
+      </c>
+      <c r="I22" s="2">
+        <v>64</v>
+      </c>
+      <c r="J22" s="2">
+        <v>67.02</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>0.45568487018800358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>81</v>
+      </c>
+      <c r="B23">
+        <v>56.65</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>0.72780229479258607</v>
+      </c>
+      <c r="E23">
+        <v>81</v>
+      </c>
+      <c r="F23">
+        <v>3.16</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>13.908227848101266</v>
+      </c>
+      <c r="I23" s="2">
+        <v>81</v>
+      </c>
+      <c r="J23" s="2">
+        <v>60.91</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>0.50139550155967827</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>51.32</v>
+      </c>
+      <c r="C28">
+        <f>B$28/B28</f>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>43.72</v>
+      </c>
+      <c r="G28">
+        <f>F$28/F28</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>4</v>
+      </c>
+      <c r="J28" s="2">
+        <v>33.92</v>
+      </c>
+      <c r="K28">
+        <f>J$28/J28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>56.22</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:C35" si="6">B$28/B29</f>
+        <v>0.91284240483813595</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>20.07</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G35" si="7">F$28/F29</f>
+        <v>2.1783756851021425</v>
+      </c>
+      <c r="I29" s="2">
+        <v>9</v>
+      </c>
+      <c r="J29" s="2">
+        <v>31.45</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:K35" si="8">J$28/J29</f>
+        <v>1.0785373608903022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>66.98</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="6"/>
+        <v>0.76619886533293513</v>
+      </c>
+      <c r="E30">
+        <v>16</v>
+      </c>
+      <c r="F30">
+        <v>11.34</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="7"/>
+        <v>3.8553791887125222</v>
+      </c>
+      <c r="I30" s="2">
+        <v>16</v>
+      </c>
+      <c r="J30" s="2">
+        <v>42.28</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="8"/>
+        <v>0.80227057710501426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>60.79</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="6"/>
+        <v>0.84421779898009541</v>
+      </c>
+      <c r="E31">
+        <v>25</v>
+      </c>
+      <c r="F31">
+        <v>7.37</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="7"/>
+        <v>5.9321573948439621</v>
+      </c>
+      <c r="I31" s="2">
+        <v>25</v>
+      </c>
+      <c r="J31" s="2">
+        <v>45.41</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="8"/>
+        <v>0.74697203259194023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>60.23</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="6"/>
+        <v>0.85206707620786992</v>
+      </c>
+      <c r="E32">
+        <v>36</v>
+      </c>
+      <c r="F32">
+        <v>5.35</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="7"/>
+        <v>8.1719626168224302</v>
+      </c>
+      <c r="I32" s="2">
+        <v>36</v>
+      </c>
+      <c r="J32" s="2">
+        <v>48.62</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="8"/>
+        <v>0.69765528589058012</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>49</v>
+      </c>
+      <c r="B33">
+        <v>81.62</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="6"/>
+        <v>0.62876745895613817</v>
+      </c>
+      <c r="E33">
+        <v>49</v>
+      </c>
+      <c r="F33">
+        <v>3.95</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="7"/>
+        <v>11.068354430379745</v>
+      </c>
+      <c r="I33" s="2">
+        <v>49</v>
+      </c>
+      <c r="J33" s="2">
+        <v>51.06</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="8"/>
+        <v>0.66431649040344698</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>86.79</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="6"/>
+        <v>0.59131236317548097</v>
+      </c>
+      <c r="E34">
+        <v>64</v>
+      </c>
+      <c r="F34">
+        <v>3.08</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="7"/>
+        <v>14.194805194805195</v>
+      </c>
+      <c r="I34" s="2">
+        <v>64</v>
+      </c>
+      <c r="J34" s="2">
+        <v>73.31</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="8"/>
+        <v>0.46269267494202704</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>81</v>
+      </c>
+      <c r="B35">
+        <v>67.45</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="6"/>
+        <v>0.76085989621942174</v>
+      </c>
+      <c r="E35">
+        <v>81</v>
+      </c>
+      <c r="F35">
+        <v>2.46</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="7"/>
+        <v>17.772357723577237</v>
+      </c>
+      <c r="I35" s="2">
+        <v>81</v>
+      </c>
+      <c r="J35" s="2">
+        <v>64.37</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="8"/>
+        <v>0.52695354979027498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ", FALSE, A39:C39)</f>
+        <v>Rank &amp; #Message &amp; Data moved (Mb)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>439.52</v>
+      </c>
+      <c r="E40" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ", FALSE, A40:C40)</f>
+        <v>4 &amp; 6 &amp; 439.52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>521.45000000000005</v>
+      </c>
+      <c r="E41" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ", FALSE, A41:C41)</f>
+        <v>9 &amp; 16 &amp; 521.45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>550.70000000000005</v>
+      </c>
+      <c r="E42" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ", FALSE, A42:C42)</f>
+        <v>16 &amp; 30 &amp; 550.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>25</v>
+      </c>
+      <c r="B43">
+        <v>48</v>
+      </c>
+      <c r="C43">
+        <v>564.91999999999996</v>
+      </c>
+      <c r="E43" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ", FALSE, A43:C43)</f>
+        <v>25 &amp; 48 &amp; 564.92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>36</v>
+      </c>
+      <c r="B44">
+        <v>70</v>
+      </c>
+      <c r="C44">
+        <v>573.34</v>
+      </c>
+      <c r="E44" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ", FALSE, A44:C44)</f>
+        <v>36 &amp; 70 &amp; 573.34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>96</v>
+      </c>
+      <c r="C45">
+        <v>579.03</v>
+      </c>
+      <c r="E45" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ", FALSE, A45:C45)</f>
+        <v>49 &amp; 96 &amp; 579.03</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>64</v>
+      </c>
+      <c r="B46">
+        <v>126</v>
+      </c>
+      <c r="C46">
+        <v>583.58000000000004</v>
+      </c>
+      <c r="E46" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ", FALSE, A46:C46)</f>
+        <v>64 &amp; 126 &amp; 583.58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>81</v>
+      </c>
+      <c r="B47">
+        <v>160</v>
+      </c>
+      <c r="C47">
+        <v>587.45000000000005</v>
+      </c>
+      <c r="E47" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ", FALSE, A47:C47)</f>
+        <v>81 &amp; 160 &amp; 587.45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ", FALSE, A50:C50)</f>
+        <v>Rank &amp; #Message &amp; Data moved (Mb)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>439.39</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" ref="E51:E58" si="9">_xlfn.TEXTJOIN(" &amp; ", FALSE, A51:C51)</f>
+        <v>4 &amp; 6 &amp; 439.39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>521.15</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="9"/>
+        <v>9 &amp; 16 &amp; 521.15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>16</v>
+      </c>
+      <c r="B53">
+        <v>30</v>
+      </c>
+      <c r="C53">
+        <v>550.21</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="9"/>
+        <v>16 &amp; 30 &amp; 550.21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>25</v>
+      </c>
+      <c r="B54">
+        <v>48</v>
+      </c>
+      <c r="C54">
+        <v>564.12</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="9"/>
+        <v>25 &amp; 48 &amp; 564.12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>36</v>
+      </c>
+      <c r="B55">
+        <v>70</v>
+      </c>
+      <c r="C55">
+        <v>572.19000000000005</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="9"/>
+        <v>36 &amp; 70 &amp; 572.19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>49</v>
+      </c>
+      <c r="B56">
+        <v>96</v>
+      </c>
+      <c r="C56">
+        <v>577.54999999999995</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="9"/>
+        <v>49 &amp; 96 &amp; 577.55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>64</v>
+      </c>
+      <c r="B57">
+        <v>126</v>
+      </c>
+      <c r="C57">
+        <v>581.58000000000004</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="9"/>
+        <v>64 &amp; 126 &amp; 581.58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>81</v>
+      </c>
+      <c r="B58">
+        <v>160</v>
+      </c>
+      <c r="C58">
+        <v>584.96</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="9"/>
+        <v>81 &amp; 160 &amp; 584.96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ", FALSE, A61:C61)</f>
+        <v>Rank &amp; #Message &amp; Data moved (Mb)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>439.33</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" ref="E62:E69" si="10">_xlfn.TEXTJOIN(" &amp; ", FALSE, A62:C62)</f>
+        <v>4 &amp; 6 &amp; 439.33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>520.9</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="10"/>
+        <v>9 &amp; 16 &amp; 520.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>16</v>
+      </c>
+      <c r="B64">
+        <v>30</v>
+      </c>
+      <c r="C64">
+        <v>549.54999999999995</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="10"/>
+        <v>16 &amp; 30 &amp; 549.55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>25</v>
+      </c>
+      <c r="B65">
+        <v>48</v>
+      </c>
+      <c r="C65">
+        <v>562.92999999999995</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="10"/>
+        <v>25 &amp; 48 &amp; 562.93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>36</v>
+      </c>
+      <c r="B66">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>570.29</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="10"/>
+        <v>36 &amp; 70 &amp; 570.29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>49</v>
+      </c>
+      <c r="B67">
+        <v>96</v>
+      </c>
+      <c r="C67">
+        <v>574.79</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="10"/>
+        <v>49 &amp; 96 &amp; 574.79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>64</v>
+      </c>
+      <c r="B68">
+        <v>126</v>
+      </c>
+      <c r="C68">
+        <v>577.79</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="10"/>
+        <v>64 &amp; 126 &amp; 577.79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>81</v>
+      </c>
+      <c r="B69">
+        <v>160</v>
+      </c>
+      <c r="C69">
+        <v>579.91999999999996</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="10"/>
+        <v>81 &amp; 160 &amp; 579.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="A25:K25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>